--- a/work-in-progress/Peppol Code Lists - Document types v7.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v7.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="250">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -763,9 +763,6 @@
     <t>TICC-118</t>
   </si>
   <si>
-    <t>TICC-117</t>
-  </si>
-  <si>
     <t>TICC-107</t>
   </si>
   <si>
@@ -779,6 +776,9 @@
   </si>
   <si>
     <t>TICC-78</t>
+  </si>
+  <si>
+    <t>TICC-117; TICC-136</t>
   </si>
 </sst>
 </file>
@@ -1283,9 +1283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H68" s="3" t="b">
         <f>FALSE</f>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H69" s="3" t="b">
         <f>FALSE</f>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H70" s="3" t="b">
         <f>FALSE</f>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H71" s="3" t="b">
         <f>TRUE</f>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H72" s="3" t="b">
         <f>TRUE</f>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H73" s="3" t="b">
         <f>FALSE</f>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H74" s="3" t="b">
         <f>FALSE</f>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H75" s="3" t="b">
         <f>FALSE</f>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H76" s="3" t="b">
         <f>FALSE</f>
@@ -3751,11 +3751,13 @@
         <v>7</v>
       </c>
       <c r="E77" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H77" s="3" t="b">
         <f>FALSE</f>
@@ -3782,11 +3784,13 @@
         <v>7</v>
       </c>
       <c r="E78" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H78" s="3" t="b">
         <f>FALSE</f>
@@ -3813,11 +3817,13 @@
         <v>7</v>
       </c>
       <c r="E79" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H79" s="3" t="b">
         <f>FALSE</f>

--- a/work-in-progress/Peppol Code Lists - Document types v7.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v7.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="256">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -779,6 +779,24 @@
   </si>
   <si>
     <t>TICC-117; TICC-136</t>
+  </si>
+  <si>
+    <t>Agid Order</t>
+  </si>
+  <si>
+    <t>Agid Order Response</t>
+  </si>
+  <si>
+    <t>TICC-137</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:order_only:3</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Order-2::Order##urn:fdc:peppol.eu:poacc:trns:order:3:restrictive:urn:www.agid.gov.it:trns:ordine:3.1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:fdc:peppol.eu:poacc:trns:order_response:3:restrictive:urn:www.agid.gov.it:trns:risposta_ordine:3.0::2.1</t>
   </si>
 </sst>
 </file>
@@ -1281,11 +1299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4369,6 +4387,104 @@
         <v>158</v>
       </c>
     </row>
+    <row r="97" spans="1:11" ht="30">
+      <c r="A97" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E97" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H97" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="45">
+      <c r="A98" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E98" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H98" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="K110" s="4"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K76"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v7.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v7.1.xlsx
@@ -1299,11 +1299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4449,42 +4449,6 @@
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="K99" s="4"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="K100" s="4"/>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="K101" s="4"/>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="K102" s="4"/>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="K103" s="4"/>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="K104" s="4"/>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="K105" s="4"/>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="K106" s="4"/>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="K107" s="4"/>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="K108" s="4"/>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="K109" s="4"/>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="K110" s="4"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:K76"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v7.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v7.1.xlsx
@@ -781,12 +781,6 @@
     <t>TICC-117; TICC-136</t>
   </si>
   <si>
-    <t>Agid Order</t>
-  </si>
-  <si>
-    <t>Agid Order Response</t>
-  </si>
-  <si>
     <t>TICC-137</t>
   </si>
   <si>
@@ -797,6 +791,12 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:fdc:peppol.eu:poacc:trns:order_response:3:restrictive:urn:www.agid.gov.it:trns:risposta_ordine:3.0::2.1</t>
+  </si>
+  <si>
+    <t>SimpleOrder_IT</t>
+  </si>
+  <si>
+    <t>OrderResponse_IT</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1303,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4389,13 +4389,13 @@
     </row>
     <row r="97" spans="1:11" ht="30">
       <c r="A97" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>236</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H97" s="3" t="b">
         <f>FALSE</f>
@@ -4415,18 +4415,18 @@
         <v>142</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="45">
       <c r="A98" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>236</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H98" s="3" t="b">
         <f>FALSE</f>
